--- a/MISA.AMIS.BE/MISA.AMIS/MISA.AMIS.Api/wwwroot/Danh_sach_nhan_vien.xlsx
+++ b/MISA.AMIS.BE/MISA.AMIS/MISA.AMIS.Api/wwwroot/Danh_sach_nhan_vien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="556">
   <si>
     <t>DANH SÁCH NHÂN VIÊN</t>
   </si>
@@ -44,24 +44,156 @@
     <t>Tên ngân hàng</t>
   </si>
   <si>
+    <t>NV-9975</t>
+  </si>
+  <si>
+    <t>Trần Thị Thúy</t>
+  </si>
+  <si>
+    <t>Không xác định</t>
+  </si>
+  <si>
+    <t>29/08/2000</t>
+  </si>
+  <si>
+    <t>Trợ lý</t>
+  </si>
+  <si>
+    <t>Phòng Quản lý</t>
+  </si>
+  <si>
+    <t>0621548</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>NV-9974</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Thảo</t>
+  </si>
+  <si>
+    <t>29/08/2021</t>
+  </si>
+  <si>
+    <t>Thực tập sinh</t>
+  </si>
+  <si>
+    <t>Phòng Nhân sự</t>
+  </si>
+  <si>
+    <t>857463</t>
+  </si>
+  <si>
+    <t>VPBANK</t>
+  </si>
+  <si>
+    <t>NV-109</t>
+  </si>
+  <si>
+    <t>Phạm Thủy Hưng Ngọc</t>
+  </si>
+  <si>
+    <t>Phó phòng</t>
+  </si>
+  <si>
+    <t>752186</t>
+  </si>
+  <si>
+    <t>NV-112</t>
+  </si>
+  <si>
+    <t>Trần Huỳnh Điểu</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>31/08/2021</t>
+  </si>
+  <si>
+    <t>Phòng chuyên môn</t>
+  </si>
+  <si>
+    <t>635287</t>
+  </si>
+  <si>
+    <t>NV-113</t>
+  </si>
+  <si>
+    <t>741256</t>
+  </si>
+  <si>
+    <t>NV-121</t>
+  </si>
+  <si>
+    <t>NV-110</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Cẩm Tú</t>
+  </si>
+  <si>
+    <t>05/09/2021</t>
+  </si>
+  <si>
+    <t>NV-9970</t>
+  </si>
+  <si>
+    <t>NV-106</t>
+  </si>
+  <si>
+    <t>Lê Hữu Tiến</t>
+  </si>
+  <si>
+    <t>NV-9973</t>
+  </si>
+  <si>
+    <t>Lê Mặc Nam</t>
+  </si>
+  <si>
+    <t>963214</t>
+  </si>
+  <si>
+    <t>NV-111</t>
+  </si>
+  <si>
+    <t>Lê Hữu Khánh</t>
+  </si>
+  <si>
+    <t>02/09/2021</t>
+  </si>
+  <si>
+    <t>261548</t>
+  </si>
+  <si>
+    <t>NV-9972</t>
+  </si>
+  <si>
+    <t>NV-120</t>
+  </si>
+  <si>
+    <t>Phạm Thủy Hưng Tiến</t>
+  </si>
+  <si>
+    <t>6352987</t>
+  </si>
+  <si>
+    <t>NV-101</t>
+  </si>
+  <si>
+    <t>NV-102</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>962541</t>
+  </si>
+  <si>
     <t>NV-53</t>
   </si>
   <si>
-    <t>Phạm Thủy Hưng Ngọc</t>
-  </si>
-  <si>
-    <t>Không xác định</t>
-  </si>
-  <si>
-    <t>29/08/2021</t>
-  </si>
-  <si>
-    <t>Thực tập sinh</t>
-  </si>
-  <si>
-    <t>Phòng chuyên môn</t>
-  </si>
-  <si>
     <t>632145</t>
   </si>
   <si>
@@ -74,18 +206,12 @@
     <t>Nguyễn Ngọc Loan</t>
   </si>
   <si>
-    <t>Nữ</t>
-  </si>
-  <si>
     <t>10/07/1974</t>
   </si>
   <si>
     <t>Phó Phòng</t>
   </si>
   <si>
-    <t>Phòng Nhân sự</t>
-  </si>
-  <si>
     <t>73746008386847</t>
   </si>
   <si>
@@ -122,24 +248,15 @@
     <t>965874</t>
   </si>
   <si>
-    <t>VPBANK</t>
-  </si>
-  <si>
     <t>NV-55</t>
   </si>
   <si>
     <t>Trần Thu Thủy</t>
   </si>
   <si>
-    <t>Nam</t>
-  </si>
-  <si>
     <t>30/08/2021</t>
   </si>
   <si>
-    <t>Trợ lý</t>
-  </si>
-  <si>
     <t>Á Châu</t>
   </si>
   <si>
@@ -158,522 +275,504 @@
     <t>NV-9951</t>
   </si>
   <si>
-    <t>NV-9969</t>
+    <t>NV-16</t>
+  </si>
+  <si>
+    <t>Bùi Minh Hiếu</t>
+  </si>
+  <si>
+    <t>07/09/1957</t>
+  </si>
+  <si>
+    <t>60619554059108</t>
+  </si>
+  <si>
+    <t>Techcombank</t>
+  </si>
+  <si>
+    <t>NV-9966</t>
+  </si>
+  <si>
+    <t>Lê Thái Hành</t>
+  </si>
+  <si>
+    <t>10/12/1960</t>
+  </si>
+  <si>
+    <t>29269661749911</t>
+  </si>
+  <si>
+    <t>NV-9936</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Hưng</t>
+  </si>
+  <si>
+    <t>03/09/2021</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>NV-18</t>
+  </si>
+  <si>
+    <t>Bùi Tuấn Thành</t>
+  </si>
+  <si>
+    <t>07/01/1951</t>
+  </si>
+  <si>
+    <t>21519440709519</t>
+  </si>
+  <si>
+    <t>Agribank</t>
+  </si>
+  <si>
+    <t>NV-29</t>
+  </si>
+  <si>
+    <t>NV-94</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Ngọc</t>
+  </si>
+  <si>
+    <t>06/03/1961</t>
+  </si>
+  <si>
+    <t>91030690143666</t>
+  </si>
+  <si>
+    <t>NV-40</t>
+  </si>
+  <si>
+    <t>NV-62</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Ly</t>
+  </si>
+  <si>
+    <t>NV-28</t>
+  </si>
+  <si>
+    <t>Trần Thị Hân</t>
+  </si>
+  <si>
+    <t>21/08/1980</t>
+  </si>
+  <si>
+    <t>30025782209905</t>
+  </si>
+  <si>
+    <t>NV-9933</t>
+  </si>
+  <si>
+    <t>Trần Văn Chăm</t>
+  </si>
+  <si>
+    <t>852369</t>
+  </si>
+  <si>
+    <t>NV-10</t>
+  </si>
+  <si>
+    <t>NV-47</t>
+  </si>
+  <si>
+    <t>NV-9941</t>
+  </si>
+  <si>
+    <t>NV-59</t>
+  </si>
+  <si>
+    <t>Phạm Thủy Quỳnh</t>
+  </si>
+  <si>
+    <t>01/01/0001</t>
+  </si>
+  <si>
+    <t>NV-9963</t>
+  </si>
+  <si>
+    <t>Trần Khánh Ly</t>
+  </si>
+  <si>
+    <t>NV-9946</t>
+  </si>
+  <si>
+    <t>Tổ trưởng</t>
+  </si>
+  <si>
+    <t>NV-23</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Hường</t>
+  </si>
+  <si>
+    <t>NV-9938</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nguyệt</t>
+  </si>
+  <si>
+    <t>NV-99</t>
+  </si>
+  <si>
+    <t>NV-68</t>
+  </si>
+  <si>
+    <t>Mai Đức Loan</t>
+  </si>
+  <si>
+    <t>30/10/1978</t>
+  </si>
+  <si>
+    <t>58166008124186</t>
+  </si>
+  <si>
+    <t>NV-9954</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Ly</t>
+  </si>
+  <si>
+    <t>NV-81</t>
+  </si>
+  <si>
+    <t>Phạm Hưng Thanh</t>
+  </si>
+  <si>
+    <t>NV-64</t>
+  </si>
+  <si>
+    <t>Trần Tuấn Anh</t>
+  </si>
+  <si>
+    <t>16/11/1966</t>
+  </si>
+  <si>
+    <t>66047106294481</t>
+  </si>
+  <si>
+    <t>NV-9962</t>
+  </si>
+  <si>
+    <t>Vũ Thị Nguyệt</t>
+  </si>
+  <si>
+    <t>NV-44</t>
+  </si>
+  <si>
+    <t>Võ Thị Diễm</t>
+  </si>
+  <si>
+    <t>03/10/1969</t>
+  </si>
+  <si>
+    <t>52395692270012</t>
+  </si>
+  <si>
+    <t>NV-43</t>
+  </si>
+  <si>
+    <t>Võ Tuấn Thái</t>
+  </si>
+  <si>
+    <t>16/04/1967</t>
+  </si>
+  <si>
+    <t>66345418983843</t>
+  </si>
+  <si>
+    <t>NV-9942</t>
+  </si>
+  <si>
+    <t>Phạm Thủy Lý</t>
+  </si>
+  <si>
+    <t>522365</t>
+  </si>
+  <si>
+    <t>NV-70</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Thái</t>
+  </si>
+  <si>
+    <t>98514</t>
+  </si>
+  <si>
+    <t>VIETINBANK</t>
+  </si>
+  <si>
+    <t>NV-73</t>
+  </si>
+  <si>
+    <t>Lê Thái Thanh</t>
+  </si>
+  <si>
+    <t>NV-9932</t>
+  </si>
+  <si>
+    <t>NV-85</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Loan</t>
+  </si>
+  <si>
+    <t>27/02/1963</t>
+  </si>
+  <si>
+    <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>31819894799392</t>
+  </si>
+  <si>
+    <t>NV-9935</t>
+  </si>
+  <si>
+    <t>Trần Hồng Thái</t>
+  </si>
+  <si>
+    <t>NV-41</t>
+  </si>
+  <si>
+    <t>NV-71</t>
+  </si>
+  <si>
+    <t>Trần Khánh Ly Anh</t>
+  </si>
+  <si>
+    <t>NV-9958</t>
+  </si>
+  <si>
+    <t>Trần Văn Cẩn</t>
+  </si>
+  <si>
+    <t>NV-67</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Thanh</t>
+  </si>
+  <si>
+    <t>NV-17</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Loan</t>
+  </si>
+  <si>
+    <t>18/11/1988</t>
+  </si>
+  <si>
+    <t>58442937624454</t>
+  </si>
+  <si>
+    <t>NV-65</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Thành</t>
+  </si>
+  <si>
+    <t>15/01/1964</t>
+  </si>
+  <si>
+    <t>06225549385499</t>
+  </si>
+  <si>
+    <t>NV-9955</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Định</t>
+  </si>
+  <si>
+    <t>NV-83</t>
+  </si>
+  <si>
+    <t>Phạm Thủy Ngọc Chân</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>04/08/2021</t>
+  </si>
+  <si>
+    <t>963214785</t>
+  </si>
+  <si>
+    <t>NV-9940</t>
+  </si>
+  <si>
+    <t>Trần Thu Thủy Lan</t>
+  </si>
+  <si>
+    <t>NV-76</t>
+  </si>
+  <si>
+    <t>Trần Thị Quỳnh</t>
+  </si>
+  <si>
+    <t>03/01/2000</t>
+  </si>
+  <si>
+    <t>NV-75</t>
+  </si>
+  <si>
+    <t>Trần Thu Loan</t>
+  </si>
+  <si>
+    <t>NV-9957</t>
+  </si>
+  <si>
+    <t>Trần Trọng Hòa</t>
+  </si>
+  <si>
+    <t>NV-88</t>
+  </si>
+  <si>
+    <t>Bùi Ngọc Cương</t>
+  </si>
+  <si>
+    <t>16/01/1979</t>
+  </si>
+  <si>
+    <t>11638861485243</t>
+  </si>
+  <si>
+    <t>NV-9964</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Liên</t>
+  </si>
+  <si>
+    <t>NV-95</t>
+  </si>
+  <si>
+    <t>NV-9950</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Nam</t>
+  </si>
+  <si>
+    <t>NV-19</t>
+  </si>
+  <si>
+    <t>Nông Tuấn Thái</t>
+  </si>
+  <si>
+    <t>07/07/1989</t>
+  </si>
+  <si>
+    <t>67681965550170</t>
+  </si>
+  <si>
+    <t>NV-9968</t>
+  </si>
+  <si>
+    <t>Mai Thị Loan</t>
+  </si>
+  <si>
+    <t>NV-61</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Cường</t>
+  </si>
+  <si>
+    <t>28/11/1959</t>
+  </si>
+  <si>
+    <t>Thực tập</t>
+  </si>
+  <si>
+    <t>94409100736341</t>
+  </si>
+  <si>
+    <t>NV-92</t>
+  </si>
+  <si>
+    <t>NV-93</t>
+  </si>
+  <si>
+    <t>NV-80</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Minh</t>
+  </si>
+  <si>
+    <t>NV-34</t>
+  </si>
+  <si>
+    <t>NV-49</t>
+  </si>
+  <si>
+    <t>Mai Diễm Linh</t>
+  </si>
+  <si>
+    <t>17/08/1959</t>
+  </si>
+  <si>
+    <t>23129368820362</t>
+  </si>
+  <si>
+    <t>NV-69</t>
+  </si>
+  <si>
+    <t>Trần Đình Hòa</t>
+  </si>
+  <si>
+    <t>NV-9934</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>09/02/2000</t>
+  </si>
+  <si>
+    <t>123465</t>
+  </si>
+  <si>
+    <t>MB Bank</t>
+  </si>
+  <si>
+    <t>NV-60</t>
+  </si>
+  <si>
+    <t>Trần Văn Thành</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực tập </t>
+  </si>
+  <si>
+    <t>NV-10001</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Hường</t>
+  </si>
+  <si>
+    <t>NV-9948</t>
+  </si>
+  <si>
+    <t>Trần Văn Hoàng</t>
+  </si>
+  <si>
+    <t>NV-30</t>
+  </si>
+  <si>
+    <t>NV-11</t>
+  </si>
+  <si>
+    <t>NV-203</t>
   </si>
   <si>
     <t>Trần Trình Viên</t>
   </si>
   <si>
-    <t>03/09/2021</t>
-  </si>
-  <si>
-    <t>Phòng Quản lý</t>
-  </si>
-  <si>
     <t>968541</t>
   </si>
   <si>
-    <t>NV-16</t>
-  </si>
-  <si>
-    <t>Bùi Minh Hiếu</t>
-  </si>
-  <si>
-    <t>07/09/1957</t>
-  </si>
-  <si>
-    <t>60619554059108</t>
-  </si>
-  <si>
-    <t>Techcombank</t>
-  </si>
-  <si>
-    <t>NV-9966</t>
-  </si>
-  <si>
-    <t>Lê Thái Hành</t>
-  </si>
-  <si>
-    <t>10/12/1960</t>
-  </si>
-  <si>
-    <t>29269661749911</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>NV-9936</t>
-  </si>
-  <si>
-    <t>Phạm Ngọc Hưng</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>963214</t>
-  </si>
-  <si>
-    <t>NV-18</t>
-  </si>
-  <si>
-    <t>Bùi Tuấn Thành</t>
-  </si>
-  <si>
-    <t>07/01/1951</t>
-  </si>
-  <si>
-    <t>21519440709519</t>
-  </si>
-  <si>
-    <t>Agribank</t>
-  </si>
-  <si>
-    <t>NV-29</t>
-  </si>
-  <si>
-    <t>NV-94</t>
-  </si>
-  <si>
-    <t>Hoàng Thị Ngọc</t>
-  </si>
-  <si>
-    <t>06/03/1961</t>
-  </si>
-  <si>
-    <t>91030690143666</t>
-  </si>
-  <si>
-    <t>NV-40</t>
-  </si>
-  <si>
-    <t>NV-62</t>
-  </si>
-  <si>
-    <t>Vũ Ngọc Ly</t>
-  </si>
-  <si>
-    <t>NV-28</t>
-  </si>
-  <si>
-    <t>Trần Thị Hân</t>
-  </si>
-  <si>
-    <t>21/08/1980</t>
-  </si>
-  <si>
-    <t>30025782209905</t>
-  </si>
-  <si>
-    <t>NV-9933</t>
-  </si>
-  <si>
-    <t>Trần Văn Chăm</t>
-  </si>
-  <si>
-    <t>31/08/2021</t>
-  </si>
-  <si>
-    <t>852369</t>
-  </si>
-  <si>
-    <t>NV-10</t>
-  </si>
-  <si>
-    <t>NV-47</t>
-  </si>
-  <si>
-    <t>NV-9941</t>
-  </si>
-  <si>
-    <t>NV-59</t>
-  </si>
-  <si>
-    <t>Phạm Thủy Quỳnh</t>
-  </si>
-  <si>
-    <t>01/01/0001</t>
-  </si>
-  <si>
-    <t>NV-9963</t>
-  </si>
-  <si>
-    <t>Trần Khánh Ly</t>
-  </si>
-  <si>
-    <t>NV-9946</t>
-  </si>
-  <si>
-    <t>Lê Thị Ngọc Thảo</t>
-  </si>
-  <si>
-    <t>Tổ trưởng</t>
-  </si>
-  <si>
-    <t>NV-23</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Hường</t>
-  </si>
-  <si>
-    <t>NV-9938</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Nguyệt</t>
-  </si>
-  <si>
-    <t>NV-99</t>
-  </si>
-  <si>
-    <t>NV-68</t>
-  </si>
-  <si>
-    <t>Mai Đức Loan</t>
-  </si>
-  <si>
-    <t>30/10/1978</t>
-  </si>
-  <si>
-    <t>58166008124186</t>
-  </si>
-  <si>
-    <t>NV-9954</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Ly</t>
-  </si>
-  <si>
-    <t>NV-81</t>
-  </si>
-  <si>
-    <t>Phạm Hưng Thanh</t>
-  </si>
-  <si>
-    <t>NV-64</t>
-  </si>
-  <si>
-    <t>Trần Tuấn Anh</t>
-  </si>
-  <si>
-    <t>16/11/1966</t>
-  </si>
-  <si>
-    <t>66047106294481</t>
-  </si>
-  <si>
-    <t>NV-9962</t>
-  </si>
-  <si>
-    <t>Vũ Thị Nguyệt</t>
-  </si>
-  <si>
-    <t>NV-44</t>
-  </si>
-  <si>
-    <t>Võ Thị Diễm</t>
-  </si>
-  <si>
-    <t>03/10/1969</t>
-  </si>
-  <si>
-    <t>52395692270012</t>
-  </si>
-  <si>
-    <t>NV-43</t>
-  </si>
-  <si>
-    <t>Võ Tuấn Thái</t>
-  </si>
-  <si>
-    <t>16/04/1967</t>
-  </si>
-  <si>
-    <t>66345418983843</t>
-  </si>
-  <si>
-    <t>NV-9942</t>
-  </si>
-  <si>
-    <t>Phạm Thủy Lý</t>
-  </si>
-  <si>
-    <t>522365</t>
-  </si>
-  <si>
-    <t>NV-70</t>
-  </si>
-  <si>
-    <t>Nguyễn Hồng Thái</t>
-  </si>
-  <si>
-    <t>98514</t>
-  </si>
-  <si>
-    <t>VIETINBANK</t>
-  </si>
-  <si>
-    <t>NV-73</t>
-  </si>
-  <si>
-    <t>Lê Thái Thanh</t>
-  </si>
-  <si>
-    <t>NV-9932</t>
-  </si>
-  <si>
-    <t>NV-85</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Loan</t>
-  </si>
-  <si>
-    <t>27/02/1963</t>
-  </si>
-  <si>
-    <t>Trưởng phòng</t>
-  </si>
-  <si>
-    <t>31819894799392</t>
-  </si>
-  <si>
-    <t>NV-9935</t>
-  </si>
-  <si>
-    <t>Trần Hồng Thái</t>
-  </si>
-  <si>
-    <t>NV-41</t>
-  </si>
-  <si>
-    <t>NV-71</t>
-  </si>
-  <si>
-    <t>Trần Khánh Ly Anh</t>
-  </si>
-  <si>
-    <t>NV-9958</t>
-  </si>
-  <si>
-    <t>Trần Văn Cẩn</t>
-  </si>
-  <si>
-    <t>NV-67</t>
-  </si>
-  <si>
-    <t>Lê Thị Ngọc Thanh</t>
-  </si>
-  <si>
-    <t>NV-17</t>
-  </si>
-  <si>
-    <t>Trịnh Thị Loan</t>
-  </si>
-  <si>
-    <t>18/11/1988</t>
-  </si>
-  <si>
-    <t>58442937624454</t>
-  </si>
-  <si>
-    <t>NV-65</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Thành</t>
-  </si>
-  <si>
-    <t>15/01/1964</t>
-  </si>
-  <si>
-    <t>06225549385499</t>
-  </si>
-  <si>
-    <t>NV-9955</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Định</t>
-  </si>
-  <si>
-    <t>NV-83</t>
-  </si>
-  <si>
-    <t>Phạm Thủy Ngọc Chân</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>04/08/2021</t>
-  </si>
-  <si>
-    <t>963214785</t>
-  </si>
-  <si>
-    <t>NV-9940</t>
-  </si>
-  <si>
-    <t>Trần Thu Thủy Lan</t>
-  </si>
-  <si>
-    <t>NV-76</t>
-  </si>
-  <si>
-    <t>Trần Thị Quỳnh</t>
-  </si>
-  <si>
-    <t>03/01/2000</t>
-  </si>
-  <si>
-    <t>NV-75</t>
-  </si>
-  <si>
-    <t>Trần Thu Loan</t>
-  </si>
-  <si>
-    <t>NV-9957</t>
-  </si>
-  <si>
-    <t>Trần Trọng Hòa</t>
-  </si>
-  <si>
-    <t>NV-88</t>
-  </si>
-  <si>
-    <t>Bùi Ngọc Cương</t>
-  </si>
-  <si>
-    <t>16/01/1979</t>
-  </si>
-  <si>
-    <t>11638861485243</t>
-  </si>
-  <si>
-    <t>NV-9964</t>
-  </si>
-  <si>
-    <t>Trịnh Thị Liên</t>
-  </si>
-  <si>
-    <t>NV-95</t>
-  </si>
-  <si>
-    <t>NV-9950</t>
-  </si>
-  <si>
-    <t>Phạm Ngọc Nam</t>
-  </si>
-  <si>
-    <t>NV-19</t>
-  </si>
-  <si>
-    <t>Nông Tuấn Thái</t>
-  </si>
-  <si>
-    <t>07/07/1989</t>
-  </si>
-  <si>
-    <t>67681965550170</t>
-  </si>
-  <si>
-    <t>NV-9968</t>
-  </si>
-  <si>
-    <t>Mai Thị Loan</t>
-  </si>
-  <si>
-    <t>NV-61</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Cường</t>
-  </si>
-  <si>
-    <t>28/11/1959</t>
-  </si>
-  <si>
-    <t>Thực tập</t>
-  </si>
-  <si>
-    <t>94409100736341</t>
-  </si>
-  <si>
-    <t>NV-92</t>
-  </si>
-  <si>
-    <t>NV-93</t>
-  </si>
-  <si>
-    <t>NV-80</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Minh</t>
-  </si>
-  <si>
-    <t>NV-34</t>
-  </si>
-  <si>
-    <t>NV-49</t>
-  </si>
-  <si>
-    <t>Mai Diễm Linh</t>
-  </si>
-  <si>
-    <t>17/08/1959</t>
-  </si>
-  <si>
-    <t>23129368820362</t>
-  </si>
-  <si>
-    <t>NV-69</t>
-  </si>
-  <si>
-    <t>Trần Đình Hòa</t>
-  </si>
-  <si>
-    <t>NV-9934</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thu Thủy</t>
-  </si>
-  <si>
-    <t>09/02/2000</t>
-  </si>
-  <si>
-    <t>123465</t>
-  </si>
-  <si>
-    <t>MB Bank</t>
-  </si>
-  <si>
-    <t>NV-60</t>
-  </si>
-  <si>
-    <t>Trần Văn Thành</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thực tập </t>
-  </si>
-  <si>
-    <t>NV-10001</t>
-  </si>
-  <si>
-    <t>Vũ Ngọc Hường</t>
-  </si>
-  <si>
-    <t>NV-9948</t>
-  </si>
-  <si>
-    <t>Trần Văn Hoàng</t>
-  </si>
-  <si>
-    <t>NV-30</t>
-  </si>
-  <si>
-    <t>NV-11</t>
-  </si>
-  <si>
-    <t>NV-203</t>
-  </si>
-  <si>
     <t>NV-32</t>
   </si>
   <si>
@@ -914,9 +1013,6 @@
     <t>Trần Thu Lan</t>
   </si>
   <si>
-    <t>NV-9931</t>
-  </si>
-  <si>
     <t>NV-46</t>
   </si>
   <si>
@@ -932,9 +1028,6 @@
     <t>Lê Anh Tới</t>
   </si>
   <si>
-    <t>NV-9922</t>
-  </si>
-  <si>
     <t>NV-9917</t>
   </si>
   <si>
@@ -1122,9 +1215,6 @@
   </si>
   <si>
     <t>NV-9890</t>
-  </si>
-  <si>
-    <t>Phó phòng</t>
   </si>
   <si>
     <t>123467894</t>
@@ -1609,11 +1699,11 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="13"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -1665,6 +1755,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1675,21 +1768,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.777589797973633" customWidth="1"/>
-    <col min="3" max="3" width="22.088848114013672" customWidth="1"/>
-    <col min="4" max="4" width="15.198502540588379" customWidth="1"/>
-    <col min="5" max="5" width="11.2464017868042" customWidth="1"/>
-    <col min="6" max="6" width="14.630702018737793" customWidth="1"/>
-    <col min="7" max="7" width="18.078432083129883" customWidth="1"/>
-    <col min="8" max="8" width="16.523372650146484" customWidth="1"/>
-    <col min="9" max="9" width="15.302886962890625" customWidth="1"/>
+    <col min="2" max="2" width="16.56125831604004" customWidth="1"/>
+    <col min="3" max="3" width="25.97513198852539" customWidth="1"/>
+    <col min="4" max="4" width="17.83199691772461" customWidth="1"/>
+    <col min="5" max="5" width="13.161332130432129" customWidth="1"/>
+    <col min="6" max="6" width="17.160959243774414" customWidth="1"/>
+    <col min="7" max="7" width="21.235549926757812" customWidth="1"/>
+    <col min="8" max="8" width="19.39775276184082" customWidth="1"/>
+    <col min="9" max="9" width="17.8404598236084" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1763,7 +1856,7 @@
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1790,22 +1883,22 @@
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1">
@@ -1813,28 +1906,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1">
@@ -1842,28 +1935,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1">
@@ -1871,28 +1964,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1">
@@ -1900,28 +1993,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1">
@@ -1929,28 +2022,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1">
@@ -1958,28 +2051,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1">
@@ -1987,26 +2080,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G12" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1">
@@ -2014,26 +2109,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G13" s="6" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1">
@@ -2041,28 +2138,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1">
@@ -2070,26 +2167,28 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G15" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1">
@@ -2097,28 +2196,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1">
@@ -2126,26 +2225,28 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="6" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1">
@@ -2153,26 +2254,28 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G18" s="6" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1">
@@ -2180,28 +2283,28 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1">
@@ -2209,26 +2312,28 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G20" s="6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1">
@@ -2236,28 +2341,28 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1">
@@ -2265,28 +2370,28 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>13</v>
+      <c r="E22" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1">
@@ -2294,28 +2399,28 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1">
@@ -2323,28 +2428,28 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1">
@@ -2352,53 +2457,55 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>93</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" s="3" customFormat="1">
       <c r="A26" s="5">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1">
@@ -2406,51 +2513,55 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>98</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" s="3" customFormat="1">
       <c r="A28" s="5">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1">
@@ -2458,28 +2569,26 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1">
@@ -2487,28 +2596,28 @@
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>33</v>
+      <c r="E30" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1">
@@ -2516,28 +2625,26 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1">
@@ -2545,28 +2652,26 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1">
@@ -2574,28 +2679,28 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1">
@@ -2603,28 +2708,26 @@
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="6"/>
       <c r="G34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1">
@@ -2632,28 +2735,28 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="H35" s="6" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1">
@@ -2661,26 +2764,28 @@
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="6"/>
+      <c r="E36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G36" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1">
@@ -2688,26 +2793,28 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G37" s="6" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1">
@@ -2715,16 +2822,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>13</v>
+      <c r="E38" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>14</v>
@@ -2733,10 +2840,10 @@
         <v>15</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1">
@@ -2744,57 +2851,53 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>132</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" s="3" customFormat="1">
       <c r="A40" s="5">
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="1">
@@ -2802,57 +2905,51 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>13</v>
+      <c r="E41" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>128</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" s="3" customFormat="1">
       <c r="A42" s="5">
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>139</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1">
@@ -2860,28 +2957,28 @@
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>40</v>
+      <c r="E43" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1">
@@ -2889,28 +2986,28 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>13</v>
+      <c r="E44" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1">
@@ -2918,28 +3015,28 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="G45" s="6" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1">
@@ -2947,28 +3044,28 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1">
@@ -2976,51 +3073,57 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>40</v>
+      <c r="E47" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="48" s="3" customFormat="1">
       <c r="A48" s="5">
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="G48" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1">
@@ -3028,28 +3131,28 @@
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>156</v>
+        <v>12</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1">
@@ -3057,28 +3160,26 @@
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="6"/>
       <c r="G50" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1">
@@ -3086,28 +3187,26 @@
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>139</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="6"/>
       <c r="G51" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1">
@@ -3115,28 +3214,28 @@
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>40</v>
+      <c r="E52" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1">
@@ -3144,53 +3243,57 @@
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>169</v>
+        <v>12</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="54" s="3" customFormat="1">
       <c r="A54" s="5">
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" s="3" customFormat="1">
@@ -3198,28 +3301,28 @@
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="H55" s="6" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" s="3" customFormat="1">
@@ -3227,28 +3330,28 @@
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>176</v>
+        <v>12</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" s="3" customFormat="1">
@@ -3256,28 +3359,28 @@
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>33</v>
+      <c r="E57" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="1">
@@ -3285,28 +3388,28 @@
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="H58" s="6" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" s="3" customFormat="1">
@@ -3314,28 +3417,28 @@
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" s="3" customFormat="1">
@@ -3343,26 +3446,28 @@
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F60" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G60" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" s="3" customFormat="1">
@@ -3370,55 +3475,51 @@
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="G61" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
     </row>
     <row r="62" s="3" customFormat="1">
       <c r="A62" s="5">
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>192</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F62" s="6"/>
       <c r="G62" s="6" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" s="3" customFormat="1">
@@ -3426,28 +3527,28 @@
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>33</v>
+        <v>57</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" s="3" customFormat="1">
@@ -3455,26 +3556,28 @@
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G64" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" s="3" customFormat="1">
@@ -3482,28 +3585,28 @@
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="H65" s="6" t="s">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" s="3" customFormat="1">
@@ -3511,28 +3614,28 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>45</v>
+      <c r="E66" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" s="3" customFormat="1">
@@ -3540,55 +3643,53 @@
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="D67" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F67" s="6"/>
+      <c r="F67" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="G67" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" s="3" customFormat="1">
       <c r="A68" s="5">
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" s="3" customFormat="1">
@@ -3596,28 +3697,28 @@
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>207</v>
+        <v>31</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>209</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" s="3" customFormat="1">
@@ -3625,28 +3726,28 @@
         <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>86</v>
+        <v>31</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" s="3" customFormat="1">
@@ -3654,28 +3755,28 @@
         <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>21</v>
+      <c r="E71" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="H71" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="72" s="3" customFormat="1">
@@ -3683,28 +3784,28 @@
         <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" s="3" customFormat="1">
@@ -3712,28 +3813,28 @@
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>45</v>
+      <c r="E73" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" s="3" customFormat="1">
@@ -3741,28 +3842,26 @@
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H74" s="6" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" s="3" customFormat="1">
@@ -3770,25 +3869,23 @@
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="D75" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F75" s="6"/>
       <c r="G75" s="6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>17</v>
@@ -3802,25 +3899,25 @@
         <v>220</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" s="3" customFormat="1">
@@ -3828,28 +3925,28 @@
         <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>50</v>
+      <c r="E77" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" s="3" customFormat="1">
@@ -3857,28 +3954,26 @@
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="E78" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F78" s="6"/>
       <c r="G78" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" s="3" customFormat="1">
@@ -3886,28 +3981,28 @@
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" s="3" customFormat="1">
@@ -3915,28 +4010,28 @@
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" s="3" customFormat="1">
@@ -3944,28 +4039,26 @@
         <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="E81" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F81" s="6"/>
       <c r="G81" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" s="3" customFormat="1">
@@ -3973,28 +4066,28 @@
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" s="3" customFormat="1">
@@ -4002,53 +4095,57 @@
         <v>80</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>40</v>
+      <c r="E83" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="84" s="3" customFormat="1">
       <c r="A84" s="5">
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C84" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="F84" s="6" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" s="3" customFormat="1">
@@ -4056,76 +4153,86 @@
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F85" s="6"/>
+      <c r="E85" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="G85" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="86" s="3" customFormat="1">
       <c r="A86" s="5">
         <v>83</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="87" s="3" customFormat="1">
       <c r="A87" s="5">
         <v>84</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>239</v>
+        <v>71</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" s="3" customFormat="1">
@@ -4133,28 +4240,28 @@
         <v>85</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" s="3" customFormat="1">
@@ -4162,28 +4269,28 @@
         <v>86</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" s="3" customFormat="1">
@@ -4191,28 +4298,28 @@
         <v>87</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>50</v>
+      <c r="E90" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" s="3" customFormat="1">
@@ -4220,28 +4327,28 @@
         <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H91" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="92" s="3" customFormat="1">
@@ -4249,28 +4356,28 @@
         <v>89</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>185</v>
+      <c r="E92" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" s="3" customFormat="1">
@@ -4278,28 +4385,28 @@
         <v>90</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>45</v>
+      <c r="E93" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" s="3" customFormat="1">
@@ -4307,28 +4414,28 @@
         <v>91</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" s="3" customFormat="1">
@@ -4336,28 +4443,28 @@
         <v>92</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" s="3" customFormat="1">
@@ -4365,28 +4472,28 @@
         <v>93</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>86</v>
+      <c r="E96" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>259</v>
+        <v>71</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>261</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" s="3" customFormat="1">
@@ -4394,136 +4501,130 @@
         <v>94</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="5" t="s">
-        <v>55</v>
+      <c r="E97" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
     </row>
     <row r="98" s="3" customFormat="1">
       <c r="A98" s="5">
         <v>95</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F98" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="G98" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="99" s="3" customFormat="1">
       <c r="A99" s="5">
         <v>96</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="E99" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" s="6"/>
       <c r="G99" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>128</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
     </row>
     <row r="100" s="3" customFormat="1">
       <c r="A100" s="5">
         <v>97</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F100" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="G100" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
     </row>
     <row r="101" s="3" customFormat="1">
       <c r="A101" s="5">
         <v>98</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>270</v>
+        <v>31</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="1">
@@ -4531,28 +4632,28 @@
         <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>40</v>
+      <c r="E102" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1">
@@ -4560,26 +4661,28 @@
         <v>100</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="D103" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F103" s="6"/>
+      <c r="F103" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G103" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1">
@@ -4587,28 +4690,28 @@
         <v>101</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="5" t="s">
-        <v>276</v>
+      <c r="E104" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="1">
@@ -4616,28 +4719,28 @@
         <v>102</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>137</v>
+        <v>280</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1">
@@ -4645,51 +4748,57 @@
         <v>103</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F106" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="G106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="107" s="3" customFormat="1">
       <c r="A107" s="5">
         <v>104</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="5" t="s">
-        <v>40</v>
+      <c r="E107" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" s="3" customFormat="1">
@@ -4697,28 +4806,28 @@
         <v>105</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1">
@@ -4726,28 +4835,28 @@
         <v>106</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>179</v>
+        <v>288</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>35</v>
+        <v>289</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" s="3" customFormat="1">
@@ -4755,26 +4864,28 @@
         <v>107</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F110" s="6"/>
+      <c r="E110" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="G110" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>25</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" s="3" customFormat="1">
@@ -4782,28 +4893,28 @@
         <v>108</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="1">
@@ -4811,57 +4922,51 @@
         <v>109</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F112" s="6"/>
       <c r="G112" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
     </row>
     <row r="113" s="3" customFormat="1">
       <c r="A113" s="5">
         <v>110</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>28</v>
+      <c r="E113" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" s="3" customFormat="1">
@@ -4869,28 +4974,26 @@
         <v>111</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>293</v>
+        <v>88</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F114" s="6"/>
       <c r="G114" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>295</v>
+        <v>90</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" s="3" customFormat="1">
@@ -4898,28 +5001,28 @@
         <v>112</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>86</v>
+      <c r="E115" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" s="3" customFormat="1">
@@ -4927,28 +5030,28 @@
         <v>113</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="5" t="s">
-        <v>40</v>
+      <c r="E116" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" s="3" customFormat="1">
@@ -4956,49 +5059,55 @@
         <v>114</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>93</v>
+        <v>57</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
+      <c r="H117" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="118" s="3" customFormat="1">
       <c r="A118" s="5">
         <v>115</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>54</v>
+        <v>308</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F118" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="G118" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>56</v>
+        <v>310</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" s="3" customFormat="1">
@@ -5006,82 +5115,80 @@
         <v>116</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="120" s="3" customFormat="1">
       <c r="A120" s="5">
         <v>117</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>100</v>
+        <v>313</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F120" s="6"/>
       <c r="G120" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
     </row>
     <row r="121" s="3" customFormat="1">
       <c r="A121" s="5">
         <v>118</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" s="3" customFormat="1">
@@ -5089,97 +5196,113 @@
         <v>119</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F122" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G122" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="123" s="3" customFormat="1">
       <c r="A123" s="5">
         <v>120</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F123" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="G123" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="124" s="3" customFormat="1">
       <c r="A124" s="5">
         <v>121</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>93</v>
+        <v>12</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="125" s="3" customFormat="1">
       <c r="A125" s="5">
         <v>122</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" s="3" customFormat="1">
@@ -5187,74 +5310,86 @@
         <v>123</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F126" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="G126" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="127" s="3" customFormat="1">
       <c r="A127" s="5">
         <v>124</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>312</v>
+        <v>69</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F127" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="G127" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="128" s="3" customFormat="1">
       <c r="A128" s="5">
         <v>125</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>315</v>
+        <v>21</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" s="3" customFormat="1">
@@ -5262,74 +5397,84 @@
         <v>126</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>11</v>
+        <v>330</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F129" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="G129" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
+      <c r="H129" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="130" s="3" customFormat="1">
       <c r="A130" s="5">
         <v>127</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F130" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G130" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="131" s="3" customFormat="1">
       <c r="A131" s="5">
         <v>128</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>258</v>
+        <v>88</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>259</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F131" s="6"/>
       <c r="G131" s="6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>261</v>
+        <v>91</v>
       </c>
     </row>
     <row r="132" s="3" customFormat="1">
@@ -5337,20 +5482,22 @@
         <v>129</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F132" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="G132" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
@@ -5360,66 +5507,78 @@
         <v>130</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F133" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G133" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="134" s="3" customFormat="1">
       <c r="A134" s="5">
         <v>131</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F134" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G134" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="135" s="3" customFormat="1">
       <c r="A135" s="5">
         <v>132</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
@@ -5429,20 +5588,20 @@
         <v>133</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
@@ -5452,43 +5611,49 @@
         <v>134</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F137" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G137" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="138" s="3" customFormat="1">
       <c r="A138" s="5">
         <v>135</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
@@ -5498,101 +5663,95 @@
         <v>136</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>329</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F139" s="6"/>
       <c r="G139" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I139" s="6" t="s">
-        <v>42</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
     </row>
     <row r="140" s="3" customFormat="1">
       <c r="A140" s="5">
         <v>137</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>11</v>
+        <v>345</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F140" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>346</v>
+      </c>
       <c r="G140" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="141" s="3" customFormat="1">
       <c r="A141" s="5">
         <v>138</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>314</v>
+        <v>26</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>315</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F141" s="6"/>
       <c r="G141" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="I141" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
     </row>
     <row r="142" s="3" customFormat="1">
       <c r="A142" s="5">
         <v>139</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>93</v>
+        <v>57</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
@@ -5602,28 +5761,28 @@
         <v>140</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>36</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" s="3" customFormat="1">
@@ -5631,20 +5790,20 @@
         <v>141</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
@@ -5654,20 +5813,20 @@
         <v>142</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
@@ -5677,173 +5836,143 @@
         <v>143</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>339</v>
+        <v>26</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E146" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>340</v>
-      </c>
+      <c r="E146" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F146" s="6"/>
       <c r="G146" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H146" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="I146" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
     </row>
     <row r="147" s="3" customFormat="1">
       <c r="A147" s="5">
         <v>144</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>343</v>
+        <v>26</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>344</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F147" s="6"/>
       <c r="G147" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="I147" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
     </row>
     <row r="148" s="3" customFormat="1">
       <c r="A148" s="5">
         <v>145</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>139</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F148" s="6"/>
       <c r="G148" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H148" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I148" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
     </row>
     <row r="149" s="3" customFormat="1">
       <c r="A149" s="5">
         <v>146</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>239</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F149" s="6"/>
       <c r="G149" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="I149" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
     </row>
     <row r="150" s="3" customFormat="1">
       <c r="A150" s="5">
         <v>147</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>350</v>
+        <v>26</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F150" s="6"/>
       <c r="G150" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H150" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="I150" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
     </row>
     <row r="151" s="3" customFormat="1">
       <c r="A151" s="5">
         <v>148</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E151" s="5" t="s">
-        <v>40</v>
+      <c r="E151" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>29</v>
+        <v>360</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>356</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152" s="3" customFormat="1">
@@ -5851,74 +5980,72 @@
         <v>149</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>358</v>
+        <v>26</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>259</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F152" s="6"/>
       <c r="G152" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H152" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="I152" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
     </row>
     <row r="153" s="3" customFormat="1">
       <c r="A153" s="5">
         <v>150</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>11</v>
+        <v>345</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>139</v>
+        <v>346</v>
       </c>
       <c r="G153" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
+      <c r="H153" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="154" s="3" customFormat="1">
       <c r="A154" s="5">
         <v>151</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
@@ -5928,43 +6055,49 @@
         <v>152</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F155" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>272</v>
+      </c>
       <c r="G155" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="156" s="3" customFormat="1">
       <c r="A156" s="5">
         <v>153</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
@@ -5974,80 +6107,80 @@
         <v>154</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>366</v>
+        <v>26</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" s="6" t="s">
-        <v>139</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F157" s="6"/>
       <c r="G157" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H157" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="I157" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
     </row>
     <row r="158" s="3" customFormat="1">
       <c r="A158" s="5">
         <v>155</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F158" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>371</v>
+      </c>
       <c r="G158" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="159" s="3" customFormat="1">
       <c r="A159" s="5">
         <v>156</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="D159" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E159" s="5" t="s">
-        <v>328</v>
-      </c>
       <c r="F159" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>371</v>
+        <v>289</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" s="3" customFormat="1">
@@ -6055,51 +6188,57 @@
         <v>157</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>11</v>
+        <v>377</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F160" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="G160" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="161" s="3" customFormat="1">
       <c r="A161" s="5">
         <v>158</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="D161" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E161" s="5" t="s">
-        <v>374</v>
-      </c>
       <c r="F161" s="6" t="s">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="162" s="3" customFormat="1">
@@ -6107,28 +6246,28 @@
         <v>159</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>11</v>
+        <v>381</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>377</v>
+        <v>31</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>382</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>378</v>
+        <v>21</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="163" s="3" customFormat="1">
@@ -6136,28 +6275,28 @@
         <v>160</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>11</v>
+        <v>385</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>377</v>
+        <v>12</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
     </row>
     <row r="164" s="3" customFormat="1">
@@ -6165,28 +6304,28 @@
         <v>161</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>280</v>
+        <v>389</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>163</v>
+        <v>12</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>390</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>139</v>
+        <v>292</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>164</v>
+        <v>391</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" s="3" customFormat="1">
@@ -6194,134 +6333,122 @@
         <v>162</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>384</v>
+        <v>26</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="F165" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="G165" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H165" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I165" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
     </row>
     <row r="166" s="3" customFormat="1">
       <c r="A166" s="5">
         <v>163</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>388</v>
+        <v>26</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>191</v>
+        <v>31</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H166" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I166" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
     </row>
     <row r="167" s="3" customFormat="1">
       <c r="A167" s="5">
         <v>164</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>390</v>
+        <v>26</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>391</v>
+        <v>12</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="I167" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
     </row>
     <row r="168" s="3" customFormat="1">
       <c r="A168" s="5">
         <v>165</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>106</v>
+        <v>193</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H168" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I168" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
     </row>
     <row r="169" s="3" customFormat="1">
       <c r="A169" s="5">
         <v>166</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F169" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="G169" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>398</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170" s="3" customFormat="1">
@@ -6332,50 +6459,48 @@
         <v>399</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>401</v>
+        <v>193</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H170" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I170" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
     </row>
     <row r="171" s="3" customFormat="1">
       <c r="A171" s="5">
         <v>168</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="F171" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G171" s="6" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>71</v>
+        <v>294</v>
       </c>
     </row>
     <row r="172" s="3" customFormat="1">
@@ -6383,53 +6508,51 @@
         <v>169</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>408</v>
+        <v>26</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>409</v>
+        <v>31</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H172" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="I172" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
     </row>
     <row r="173" s="3" customFormat="1">
       <c r="A173" s="5">
         <v>170</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>412</v>
+        <v>345</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="F173" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="G173" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174" s="3" customFormat="1">
@@ -6437,26 +6560,28 @@
         <v>171</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F174" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>408</v>
+      </c>
       <c r="G174" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>186</v>
+        <v>409</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" s="3" customFormat="1">
@@ -6464,26 +6589,28 @@
         <v>172</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>417</v>
+        <v>26</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="F175" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="G175" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>57</v>
+        <v>387</v>
       </c>
     </row>
     <row r="176" s="3" customFormat="1">
@@ -6491,26 +6618,28 @@
         <v>173</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>421</v>
+        <v>313</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F176" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="G176" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>423</v>
+        <v>195</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="177" s="3" customFormat="1">
@@ -6518,26 +6647,26 @@
         <v>174</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>426</v>
+        <v>31</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" s="3" customFormat="1">
@@ -6545,26 +6674,26 @@
         <v>175</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="179" s="3" customFormat="1">
@@ -6572,26 +6701,26 @@
         <v>176</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E179" s="5" t="s">
-        <v>431</v>
+        <v>31</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" s="3" customFormat="1">
@@ -6599,26 +6728,26 @@
         <v>177</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>138</v>
+        <v>31</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" s="3" customFormat="1">
@@ -6626,26 +6755,26 @@
         <v>178</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E181" s="5" t="s">
-        <v>28</v>
+      <c r="E181" s="7" t="s">
+        <v>427</v>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>30</v>
+        <v>428</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182" s="3" customFormat="1">
@@ -6653,26 +6782,26 @@
         <v>179</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E182" s="5" t="s">
-        <v>439</v>
+      <c r="E182" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="F182" s="6"/>
       <c r="G182" s="6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" s="3" customFormat="1">
@@ -6680,26 +6809,26 @@
         <v>180</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>443</v>
+        <v>57</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>435</v>
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="184" s="3" customFormat="1">
@@ -6707,26 +6836,26 @@
         <v>181</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>68</v>
+        <v>438</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>439</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>70</v>
+        <v>440</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="185" s="3" customFormat="1">
@@ -6734,26 +6863,26 @@
         <v>182</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>443</v>
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H185" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="I185" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="I185" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="186" s="3" customFormat="1">
@@ -6761,26 +6890,26 @@
         <v>183</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>449</v>
+        <v>215</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>450</v>
+        <v>12</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="F186" s="6"/>
       <c r="G186" s="6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>451</v>
+        <v>217</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" s="3" customFormat="1">
@@ -6788,26 +6917,26 @@
         <v>184</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>454</v>
+        <v>57</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="F187" s="6"/>
       <c r="G187" s="6" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="188" s="3" customFormat="1">
@@ -6815,26 +6944,26 @@
         <v>185</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>74</v>
+        <v>451</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>75</v>
+        <v>31</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189" s="3" customFormat="1">
@@ -6842,26 +6971,26 @@
         <v>186</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>459</v>
+        <v>31</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>456</v>
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H189" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" s="3" customFormat="1">
@@ -6869,26 +6998,26 @@
         <v>187</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E190" s="5" t="s">
-        <v>201</v>
+      <c r="E190" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H190" s="6" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" s="3" customFormat="1">
@@ -6896,26 +7025,26 @@
         <v>188</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>294</v>
+        <v>57</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>461</v>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>295</v>
+        <v>462</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" s="3" customFormat="1">
@@ -6923,26 +7052,26 @@
         <v>189</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C192" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="D192" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>465</v>
+        <v>57</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>466</v>
+        <v>171</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" s="3" customFormat="1">
@@ -6950,26 +7079,26 @@
         <v>190</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>469</v>
+        <v>12</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>470</v>
+        <v>72</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" s="3" customFormat="1">
@@ -6977,26 +7106,26 @@
         <v>191</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>151</v>
+        <v>468</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>152</v>
+        <v>12</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>469</v>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>153</v>
+        <v>470</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" s="3" customFormat="1">
@@ -7004,26 +7133,26 @@
         <v>192</v>
       </c>
       <c r="B195" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="D195" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E195" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>474</v>
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H195" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="196" s="3" customFormat="1">
@@ -7031,26 +7160,26 @@
         <v>193</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>477</v>
+        <v>101</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>478</v>
+        <v>31</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>479</v>
+        <v>103</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="197" s="3" customFormat="1">
@@ -7058,26 +7187,26 @@
         <v>194</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>482</v>
+        <v>57</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>483</v>
+        <v>95</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" s="3" customFormat="1">
@@ -7085,26 +7214,26 @@
         <v>195</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>486</v>
+        <v>57</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H198" s="6" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" s="3" customFormat="1">
@@ -7112,26 +7241,26 @@
         <v>196</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>490</v>
+        <v>57</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>484</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H199" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" s="3" customFormat="1">
@@ -7139,26 +7268,26 @@
         <v>197</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>286</v>
+        <v>107</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>287</v>
+        <v>57</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H200" s="6" t="s">
-        <v>288</v>
+        <v>109</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" s="3" customFormat="1">
@@ -7166,26 +7295,26 @@
         <v>198</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>119</v>
+        <v>488</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>120</v>
+        <v>57</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>489</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H201" s="6" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" s="3" customFormat="1">
@@ -7193,26 +7322,26 @@
         <v>199</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>495</v>
+        <v>231</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E202" s="5" t="s">
-        <v>496</v>
+        <v>12</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>497</v>
+        <v>233</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" s="3" customFormat="1">
@@ -7220,26 +7349,26 @@
         <v>200</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E203" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>46</v>
+        <v>328</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="204" s="3" customFormat="1">
@@ -7247,26 +7376,26 @@
         <v>201</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>501</v>
+        <v>182</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>502</v>
+        <v>12</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>495</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="205" s="3" customFormat="1">
@@ -7274,26 +7403,26 @@
         <v>202</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>156</v>
+        <v>31</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>499</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H205" s="6" t="s">
-        <v>157</v>
+        <v>500</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="206" s="3" customFormat="1">
@@ -7301,26 +7430,26 @@
         <v>203</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>507</v>
+        <v>182</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>508</v>
+        <v>31</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>509</v>
+        <v>184</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" s="3" customFormat="1">
@@ -7328,26 +7457,26 @@
         <v>204</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E207" s="5" t="s">
-        <v>512</v>
+        <v>31</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>504</v>
       </c>
       <c r="F207" s="6"/>
       <c r="G207" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" s="3" customFormat="1">
@@ -7355,26 +7484,26 @@
         <v>205</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>176</v>
+        <v>31</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>177</v>
+        <v>509</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="209" s="3" customFormat="1">
@@ -7382,26 +7511,26 @@
         <v>206</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>512</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="210" s="3" customFormat="1">
@@ -7409,26 +7538,26 @@
         <v>207</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>123</v>
+        <v>515</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>124</v>
+        <v>57</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>516</v>
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>125</v>
+        <v>517</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="211" s="3" customFormat="1">
@@ -7436,26 +7565,26 @@
         <v>208</v>
       </c>
       <c r="B211" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E211" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>277</v>
+        <v>521</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="212" s="3" customFormat="1">
@@ -7466,23 +7595,23 @@
         <v>522</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>523</v>
+        <v>319</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E212" s="5" t="s">
-        <v>114</v>
+      <c r="E212" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H212" s="6" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="213" s="3" customFormat="1">
@@ -7490,26 +7619,26 @@
         <v>210</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="D213" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E213" s="5" t="s">
-        <v>55</v>
+      <c r="E213" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="F213" s="6"/>
       <c r="G213" s="6" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="H213" s="6" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="214" s="3" customFormat="1">
@@ -7517,26 +7646,350 @@
         <v>211</v>
       </c>
       <c r="B214" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C214" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D214" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>21</v>
+        <v>57</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>526</v>
       </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H214" s="6" t="s">
-        <v>24</v>
+        <v>527</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" s="3" customFormat="1">
+      <c r="A215" s="5">
+        <v>212</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H215" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="216" s="3" customFormat="1">
+      <c r="A216" s="5">
+        <v>213</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H216" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="217" s="3" customFormat="1">
+      <c r="A217" s="5">
+        <v>214</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H217" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I217" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" s="3" customFormat="1">
+      <c r="A218" s="5">
+        <v>215</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H218" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="219" s="3" customFormat="1">
+      <c r="A219" s="5">
+        <v>216</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H219" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="I219" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="220" s="3" customFormat="1">
+      <c r="A220" s="5">
+        <v>217</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H220" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I220" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="221" s="3" customFormat="1">
+      <c r="A221" s="5">
+        <v>218</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H221" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="I221" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="222" s="3" customFormat="1">
+      <c r="A222" s="5">
+        <v>219</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H222" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I222" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="223" s="3" customFormat="1">
+      <c r="A223" s="5">
+        <v>220</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H223" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I223" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="224" s="3" customFormat="1">
+      <c r="A224" s="5">
+        <v>221</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H224" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I224" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="225" s="3" customFormat="1">
+      <c r="A225" s="5">
+        <v>222</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H225" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I225" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="226" s="3" customFormat="1">
+      <c r="A226" s="5">
+        <v>223</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H226" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I226" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
